--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4145993333333333</v>
+        <v>0.07975500000000001</v>
       </c>
       <c r="H2">
-        <v>1.243798</v>
+        <v>0.239265</v>
       </c>
       <c r="I2">
-        <v>0.0481614889304291</v>
+        <v>0.01115004800860744</v>
       </c>
       <c r="J2">
-        <v>0.04908490134877933</v>
+        <v>0.01137782884785698</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N2">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O2">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P2">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q2">
-        <v>1.269739065687333</v>
+        <v>0.14551103021</v>
       </c>
       <c r="R2">
-        <v>11.427651591186</v>
+        <v>1.30959927189</v>
       </c>
       <c r="S2">
-        <v>0.0118480990048465</v>
+        <v>0.002125875483672679</v>
       </c>
       <c r="T2">
-        <v>0.01320675226168003</v>
+        <v>0.00229314675717036</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4145993333333333</v>
+        <v>0.07975500000000001</v>
       </c>
       <c r="H3">
-        <v>1.243798</v>
+        <v>0.239265</v>
       </c>
       <c r="I3">
-        <v>0.0481614889304291</v>
+        <v>0.01115004800860744</v>
       </c>
       <c r="J3">
-        <v>0.04908490134877933</v>
+        <v>0.01137782884785698</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>18.441306</v>
       </c>
       <c r="O3">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P3">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q3">
-        <v>2.548584391132</v>
+        <v>0.4902621200100001</v>
       </c>
       <c r="R3">
-        <v>22.937259520188</v>
+        <v>4.41235908009</v>
       </c>
       <c r="S3">
-        <v>0.02378116969409994</v>
+        <v>0.007162592553970015</v>
       </c>
       <c r="T3">
-        <v>0.02650822013847782</v>
+        <v>0.007726170236317491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4145993333333333</v>
+        <v>0.07975500000000001</v>
       </c>
       <c r="H4">
-        <v>1.243798</v>
+        <v>0.239265</v>
       </c>
       <c r="I4">
-        <v>0.0481614889304291</v>
+        <v>0.01115004800860744</v>
       </c>
       <c r="J4">
-        <v>0.04908490134877933</v>
+        <v>0.01137782884785698</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N4">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O4">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P4">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q4">
-        <v>0.007296257267777776</v>
+        <v>0.000748872865</v>
       </c>
       <c r="R4">
-        <v>0.06566631541</v>
+        <v>0.006739855785</v>
       </c>
       <c r="S4">
-        <v>6.808231770569861E-05</v>
+        <v>1.094082326125825E-05</v>
       </c>
       <c r="T4">
-        <v>7.588949948615006E-05</v>
+        <v>1.180168527038309E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4145993333333333</v>
+        <v>0.07975500000000001</v>
       </c>
       <c r="H5">
-        <v>1.243798</v>
+        <v>0.239265</v>
       </c>
       <c r="I5">
-        <v>0.0481614889304291</v>
+        <v>0.01115004800860744</v>
       </c>
       <c r="J5">
-        <v>0.04908490134877933</v>
+        <v>0.01137782884785698</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N5">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O5">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P5">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q5">
-        <v>1.326601156954333</v>
+        <v>0.1236498789825</v>
       </c>
       <c r="R5">
-        <v>7.959606941725998</v>
+        <v>0.741899273895</v>
       </c>
       <c r="S5">
-        <v>0.01237868651306761</v>
+        <v>0.001806490174034418</v>
       </c>
       <c r="T5">
-        <v>0.009198789107361487</v>
+        <v>0.001299087400700894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4145993333333333</v>
+        <v>0.07975500000000001</v>
       </c>
       <c r="H6">
-        <v>1.243798</v>
+        <v>0.239265</v>
       </c>
       <c r="I6">
-        <v>0.0481614889304291</v>
+        <v>0.01115004800860744</v>
       </c>
       <c r="J6">
-        <v>0.04908490134877933</v>
+        <v>0.01137782884785698</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N6">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O6">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P6">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q6">
-        <v>0.009157670074666667</v>
+        <v>0.003021890365</v>
       </c>
       <c r="R6">
-        <v>0.082419030672</v>
+        <v>0.027197013285</v>
       </c>
       <c r="S6">
-        <v>8.545140070935531E-05</v>
+        <v>4.414897366906755E-05</v>
       </c>
       <c r="T6">
-        <v>9.525034177384693E-05</v>
+        <v>4.762276839785495E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>16.311022</v>
       </c>
       <c r="I7">
-        <v>0.6315841523277781</v>
+        <v>0.7601140090253573</v>
       </c>
       <c r="J7">
-        <v>0.6436936751528539</v>
+        <v>0.7756421400941631</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N7">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O7">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P7">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q7">
-        <v>16.65121011183933</v>
+        <v>9.919685766819111</v>
       </c>
       <c r="R7">
-        <v>149.860891006554</v>
+        <v>89.277171901372</v>
       </c>
       <c r="S7">
-        <v>0.1553745893836696</v>
+        <v>0.1449238366808589</v>
       </c>
       <c r="T7">
-        <v>0.1731918098347262</v>
+        <v>0.1563269479674604</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>16.311022</v>
       </c>
       <c r="I8">
-        <v>0.6315841523277781</v>
+        <v>0.7601140090253573</v>
       </c>
       <c r="J8">
-        <v>0.6436936751528539</v>
+        <v>0.7756421400941631</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>18.441306</v>
       </c>
       <c r="O8">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P8">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q8">
         <v>33.421838652748</v>
@@ -948,10 +948,10 @@
         <v>300.796547874732</v>
       </c>
       <c r="S8">
-        <v>0.3118634875327002</v>
+        <v>0.4882837219185469</v>
       </c>
       <c r="T8">
-        <v>0.3476257092064425</v>
+        <v>0.5267035826398337</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>16.311022</v>
       </c>
       <c r="I9">
-        <v>0.6315841523277781</v>
+        <v>0.7601140090253573</v>
       </c>
       <c r="J9">
-        <v>0.6436936751528539</v>
+        <v>0.7756421400941631</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N9">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O9">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P9">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q9">
-        <v>0.09568226738777777</v>
+        <v>0.05105168652422222</v>
       </c>
       <c r="R9">
-        <v>0.86114040649</v>
+        <v>0.459465178718</v>
       </c>
       <c r="S9">
-        <v>0.0008928235789964606</v>
+        <v>0.0007458508720978624</v>
       </c>
       <c r="T9">
-        <v>0.0009952060508921726</v>
+        <v>0.0008045370116076093</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>16.311022</v>
       </c>
       <c r="I10">
-        <v>0.6315841523277781</v>
+        <v>0.7601140090253573</v>
       </c>
       <c r="J10">
-        <v>0.6436936751528539</v>
+        <v>0.7756421400941631</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N10">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O10">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P10">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q10">
-        <v>17.39689294910233</v>
+        <v>8.429381214891</v>
       </c>
       <c r="R10">
-        <v>104.381357694614</v>
+        <v>50.57628728934601</v>
       </c>
       <c r="S10">
-        <v>0.1623326521233746</v>
+        <v>0.1231509036902983</v>
       </c>
       <c r="T10">
-        <v>0.1206318481807605</v>
+        <v>0.08856056327818572</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>16.311022</v>
       </c>
       <c r="I11">
-        <v>0.6315841523277781</v>
+        <v>0.7601140090253573</v>
       </c>
       <c r="J11">
-        <v>0.6436936751528539</v>
+        <v>0.7756421400941631</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N11">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O11">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P11">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q11">
-        <v>0.1200926179786667</v>
+        <v>0.2060063955242223</v>
       </c>
       <c r="R11">
-        <v>1.080833561808</v>
+        <v>1.854057559718</v>
       </c>
       <c r="S11">
-        <v>0.001120599709037247</v>
+        <v>0.003009695863555395</v>
       </c>
       <c r="T11">
-        <v>0.001249101880032559</v>
+        <v>0.003246509197075698</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6428130000000001</v>
+        <v>1.170185</v>
       </c>
       <c r="H12">
-        <v>1.928439</v>
+        <v>3.510555</v>
       </c>
       <c r="I12">
-        <v>0.0746716858778578</v>
+        <v>0.1635962501279204</v>
       </c>
       <c r="J12">
-        <v>0.0761033850127904</v>
+        <v>0.1669383066933675</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N12">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O12">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P12">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q12">
-        <v>1.968659166597</v>
+        <v>2.134973667936666</v>
       </c>
       <c r="R12">
-        <v>17.717932499373</v>
+        <v>19.21476301143</v>
       </c>
       <c r="S12">
-        <v>0.01836981261973985</v>
+        <v>0.03119136860211289</v>
       </c>
       <c r="T12">
-        <v>0.02047632825005507</v>
+        <v>0.03364561391811671</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6428130000000001</v>
+        <v>1.170185</v>
       </c>
       <c r="H13">
-        <v>1.928439</v>
+        <v>3.510555</v>
       </c>
       <c r="I13">
-        <v>0.0746716858778578</v>
+        <v>0.1635962501279204</v>
       </c>
       <c r="J13">
-        <v>0.0761033850127904</v>
+        <v>0.1669383066933675</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>18.441306</v>
       </c>
       <c r="O13">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P13">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q13">
-        <v>3.951437077926001</v>
+        <v>7.193246553870001</v>
       </c>
       <c r="R13">
-        <v>35.562933701334</v>
+        <v>64.73921898483</v>
       </c>
       <c r="S13">
-        <v>0.03687136906774283</v>
+        <v>0.1050913217700132</v>
       </c>
       <c r="T13">
-        <v>0.04109950774613404</v>
+        <v>0.1133602723087604</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6428130000000001</v>
+        <v>1.170185</v>
       </c>
       <c r="H14">
-        <v>1.928439</v>
+        <v>3.510555</v>
       </c>
       <c r="I14">
-        <v>0.0746716858778578</v>
+        <v>0.1635962501279204</v>
       </c>
       <c r="J14">
-        <v>0.0761033850127904</v>
+        <v>0.1669383066933675</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N14">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O14">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P14">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q14">
-        <v>0.011312437445</v>
+        <v>0.01098764708833333</v>
       </c>
       <c r="R14">
-        <v>0.101811937005</v>
+        <v>0.098888823795</v>
       </c>
       <c r="S14">
-        <v>0.00010555781298415</v>
+        <v>0.0001605264531123501</v>
       </c>
       <c r="T14">
-        <v>0.0001176624102141761</v>
+        <v>0.0001731572325010751</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6428130000000001</v>
+        <v>1.170185</v>
       </c>
       <c r="H15">
-        <v>1.928439</v>
+        <v>3.510555</v>
       </c>
       <c r="I15">
-        <v>0.0746716858778578</v>
+        <v>0.1635962501279204</v>
       </c>
       <c r="J15">
-        <v>0.0761033850127904</v>
+        <v>0.1669383066933675</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N15">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O15">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P15">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q15">
-        <v>2.0568206481405</v>
+        <v>1.8142214737275</v>
       </c>
       <c r="R15">
-        <v>12.340923888843</v>
+        <v>10.885328842365</v>
       </c>
       <c r="S15">
-        <v>0.01919245877592148</v>
+        <v>0.02650526868914132</v>
       </c>
       <c r="T15">
-        <v>0.01426220629669053</v>
+        <v>0.0190605302487515</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6428130000000001</v>
+        <v>1.170185</v>
       </c>
       <c r="H16">
-        <v>1.928439</v>
+        <v>3.510555</v>
       </c>
       <c r="I16">
-        <v>0.0746716858778578</v>
+        <v>0.1635962501279204</v>
       </c>
       <c r="J16">
-        <v>0.0761033850127904</v>
+        <v>0.1669383066933675</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N16">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O16">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P16">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q16">
-        <v>0.014198453544</v>
+        <v>0.04433791958833334</v>
       </c>
       <c r="R16">
-        <v>0.127786081896</v>
+        <v>0.399041276295</v>
       </c>
       <c r="S16">
-        <v>0.0001324876014694898</v>
+        <v>0.000647764613540691</v>
       </c>
       <c r="T16">
-        <v>0.0001476803096966032</v>
+        <v>0.0006987329852378396</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.485845</v>
+        <v>0.429596</v>
       </c>
       <c r="H17">
-        <v>0.9716899999999999</v>
+        <v>0.859192</v>
       </c>
       <c r="I17">
-        <v>0.05643766573689054</v>
+        <v>0.06005913139371476</v>
       </c>
       <c r="J17">
-        <v>0.03834650625872962</v>
+        <v>0.04085737372138815</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N17">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O17">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P17">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q17">
-        <v>1.487933835805</v>
+        <v>0.7837873052986666</v>
       </c>
       <c r="R17">
-        <v>8.92760301483</v>
+        <v>4.702723831791999</v>
       </c>
       <c r="S17">
-        <v>0.01388410254963342</v>
+        <v>0.01145091347606856</v>
       </c>
       <c r="T17">
-        <v>0.01031748652526526</v>
+        <v>0.008234607437722674</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.485845</v>
+        <v>0.429596</v>
       </c>
       <c r="H18">
-        <v>0.9716899999999999</v>
+        <v>0.859192</v>
       </c>
       <c r="I18">
-        <v>0.05643766573689054</v>
+        <v>0.06005913139371476</v>
       </c>
       <c r="J18">
-        <v>0.03834650625872962</v>
+        <v>0.04085737372138815</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>18.441306</v>
       </c>
       <c r="O18">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P18">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q18">
-        <v>2.98653877119</v>
+        <v>2.640770430792</v>
       </c>
       <c r="R18">
-        <v>17.91923262714</v>
+        <v>15.844622584752</v>
       </c>
       <c r="S18">
-        <v>0.02786777850590687</v>
+        <v>0.03858091794640214</v>
       </c>
       <c r="T18">
-        <v>0.02070896755450444</v>
+        <v>0.02774439912934235</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.485845</v>
+        <v>0.429596</v>
       </c>
       <c r="H19">
-        <v>0.9716899999999999</v>
+        <v>0.859192</v>
       </c>
       <c r="I19">
-        <v>0.05643766573689054</v>
+        <v>0.06005913139371476</v>
       </c>
       <c r="J19">
-        <v>0.03834650625872962</v>
+        <v>0.04085737372138815</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N19">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O19">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P19">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q19">
-        <v>0.008550062258333331</v>
+        <v>0.004033763241333333</v>
       </c>
       <c r="R19">
-        <v>0.05130037354999999</v>
+        <v>0.024202579448</v>
       </c>
       <c r="S19">
-        <v>7.978173380016323E-05</v>
+        <v>5.893215359216974E-05</v>
       </c>
       <c r="T19">
-        <v>5.928701264650463E-05</v>
+        <v>4.237942687326182E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.485845</v>
+        <v>0.429596</v>
       </c>
       <c r="H20">
-        <v>0.9716899999999999</v>
+        <v>0.859192</v>
       </c>
       <c r="I20">
-        <v>0.05643766573689054</v>
+        <v>0.06005913139371476</v>
       </c>
       <c r="J20">
-        <v>0.03834650625872962</v>
+        <v>0.04085737372138815</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N20">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O20">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P20">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q20">
-        <v>1.5545672346325</v>
+        <v>0.6660333949139999</v>
       </c>
       <c r="R20">
-        <v>6.218268938529999</v>
+        <v>2.664133579656</v>
       </c>
       <c r="S20">
-        <v>0.01450586738909694</v>
+        <v>0.009730561755432136</v>
       </c>
       <c r="T20">
-        <v>0.007186352918827723</v>
+        <v>0.004664976080843428</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.485845</v>
+        <v>0.429596</v>
       </c>
       <c r="H21">
-        <v>0.9716899999999999</v>
+        <v>0.859192</v>
       </c>
       <c r="I21">
-        <v>0.05643766573689054</v>
+        <v>0.06005913139371476</v>
       </c>
       <c r="J21">
-        <v>0.03834650625872962</v>
+        <v>0.04085737372138815</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N21">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O21">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P21">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q21">
-        <v>0.01073134436</v>
+        <v>0.01627724924133333</v>
       </c>
       <c r="R21">
-        <v>0.06438806615999999</v>
+        <v>0.097663495448</v>
       </c>
       <c r="S21">
-        <v>0.0001001355584531493</v>
+        <v>0.0002378060622197573</v>
       </c>
       <c r="T21">
-        <v>7.441224748570855E-05</v>
+        <v>0.0001710116466064397</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.628259333333333</v>
+        <v>0.03634066666666667</v>
       </c>
       <c r="H22">
-        <v>4.884778</v>
+        <v>0.109022</v>
       </c>
       <c r="I22">
-        <v>0.1891450071270444</v>
+        <v>0.005080561444400142</v>
       </c>
       <c r="J22">
-        <v>0.1927715322268468</v>
+        <v>0.005184350643224308</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N22">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O22">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P22">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q22">
-        <v>4.986656558227333</v>
+        <v>0.06630264993022222</v>
       </c>
       <c r="R22">
-        <v>44.87990902404599</v>
+        <v>0.596723849372</v>
       </c>
       <c r="S22">
-        <v>0.04653113557080498</v>
+        <v>0.0009686631850916883</v>
       </c>
       <c r="T22">
-        <v>0.05186698555497345</v>
+        <v>0.001044880971977627</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.628259333333333</v>
+        <v>0.03634066666666667</v>
       </c>
       <c r="H23">
-        <v>4.884778</v>
+        <v>0.109022</v>
       </c>
       <c r="I23">
-        <v>0.1891450071270444</v>
+        <v>0.005080561444400142</v>
       </c>
       <c r="J23">
-        <v>0.1927715322268468</v>
+        <v>0.005184350643224308</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>18.441306</v>
       </c>
       <c r="O23">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P23">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q23">
-        <v>10.009076204452</v>
+        <v>0.223389784748</v>
       </c>
       <c r="R23">
-        <v>90.081685840068</v>
+        <v>2.010508062732</v>
       </c>
       <c r="S23">
-        <v>0.09339598112877341</v>
+        <v>0.003263662321772591</v>
       </c>
       <c r="T23">
-        <v>0.1041059485154289</v>
+        <v>0.003520458619120245</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.628259333333333</v>
+        <v>0.03634066666666667</v>
       </c>
       <c r="H24">
-        <v>4.884778</v>
+        <v>0.109022</v>
       </c>
       <c r="I24">
-        <v>0.1891450071270444</v>
+        <v>0.005080561444400142</v>
       </c>
       <c r="J24">
-        <v>0.1927715322268468</v>
+        <v>0.005184350643224308</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N24">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O24">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P24">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q24">
-        <v>0.0286546505011111</v>
+        <v>0.0003412267464444444</v>
       </c>
       <c r="R24">
-        <v>0.25789185451</v>
+        <v>0.003071040718</v>
       </c>
       <c r="S24">
-        <v>0.0002673802399728951</v>
+        <v>4.985227398862754E-06</v>
       </c>
       <c r="T24">
-        <v>0.000298041448467482</v>
+        <v>5.377482421364202E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.628259333333333</v>
+        <v>0.03634066666666667</v>
       </c>
       <c r="H25">
-        <v>4.884778</v>
+        <v>0.109022</v>
       </c>
       <c r="I25">
-        <v>0.1891450071270444</v>
+        <v>0.005080561444400142</v>
       </c>
       <c r="J25">
-        <v>0.1927715322268468</v>
+        <v>0.005184350643224308</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N25">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O25">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P25">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q25">
-        <v>5.209971511664333</v>
+        <v>0.056341533891</v>
       </c>
       <c r="R25">
-        <v>31.25982906998599</v>
+        <v>0.338049203346</v>
       </c>
       <c r="S25">
-        <v>0.04861491620659412</v>
+        <v>0.0008231340637100302</v>
       </c>
       <c r="T25">
-        <v>0.03612647926615015</v>
+        <v>0.0005919340756032553</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.628259333333333</v>
+        <v>0.03634066666666667</v>
       </c>
       <c r="H26">
-        <v>4.884778</v>
+        <v>0.109022</v>
       </c>
       <c r="I26">
-        <v>0.1891450071270444</v>
+        <v>0.005080561444400142</v>
       </c>
       <c r="J26">
-        <v>0.1927715322268468</v>
+        <v>0.005184350643224308</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N26">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O26">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P26">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q26">
-        <v>0.03596499215466666</v>
+        <v>0.001376935746444445</v>
       </c>
       <c r="R26">
-        <v>0.323684929392</v>
+        <v>0.012392421718</v>
       </c>
       <c r="S26">
-        <v>0.0003355939808990232</v>
+        <v>2.011664642697044E-05</v>
       </c>
       <c r="T26">
-        <v>0.0003740774418268629</v>
+        <v>2.169949410181574E-05</v>
       </c>
     </row>
   </sheetData>
